--- a/Intent_Prediction/multitask_audio/multitask_ds.xlsx
+++ b/Intent_Prediction/multitask_audio/multitask_ds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20051248d\Documents\GitHub\Medic_Grabber\Intent_Prediction\multitask_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DCC6E-34CF-4C26-B02E-F9287990B057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15AA07-6116-4231-A0C3-CA3857F3EBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
